--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Col4a5</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Col4a5</t>
-  </si>
-  <si>
-    <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.393812666666667</v>
+        <v>0.3541365</v>
       </c>
       <c r="H2">
-        <v>7.181438</v>
+        <v>0.7082729999999999</v>
       </c>
       <c r="I2">
-        <v>0.4532272278726139</v>
+        <v>0.06920610996416414</v>
       </c>
       <c r="J2">
-        <v>0.5497499903927843</v>
+        <v>0.05608720193777861</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>562.7892263346027</v>
+        <v>78.00112010518875</v>
       </c>
       <c r="R2">
-        <v>3376.735358007616</v>
+        <v>312.004480420755</v>
       </c>
       <c r="S2">
-        <v>0.1894832127060979</v>
+        <v>0.0354993226370203</v>
       </c>
       <c r="T2">
-        <v>0.1782205947619315</v>
+        <v>0.02320733690121096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.393812666666667</v>
+        <v>0.3541365</v>
       </c>
       <c r="H3">
-        <v>7.181438</v>
+        <v>0.7082729999999999</v>
       </c>
       <c r="I3">
-        <v>0.4532272278726139</v>
+        <v>0.06920610996416414</v>
       </c>
       <c r="J3">
-        <v>0.5497499903927843</v>
+        <v>0.05608720193777861</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>0.1468556194746667</v>
+        <v>0.021725566002</v>
       </c>
       <c r="R3">
-        <v>1.321700575272</v>
+        <v>0.130353396012</v>
       </c>
       <c r="S3">
-        <v>4.944422046462536E-05</v>
+        <v>9.887587203065986E-06</v>
       </c>
       <c r="T3">
-        <v>6.975798741928877E-05</v>
+        <v>9.695870948352626E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.393812666666667</v>
+        <v>0.3541365</v>
       </c>
       <c r="H4">
-        <v>7.181438</v>
+        <v>0.7082729999999999</v>
       </c>
       <c r="I4">
-        <v>0.4532272278726139</v>
+        <v>0.06920610996416414</v>
       </c>
       <c r="J4">
-        <v>0.5497499903927843</v>
+        <v>0.05608720193777861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>232.4765542088709</v>
+        <v>25.3915552957605</v>
       </c>
       <c r="R4">
-        <v>2092.288987879838</v>
+        <v>152.349331774563</v>
       </c>
       <c r="S4">
-        <v>0.07827158429672974</v>
+        <v>0.01155602653505975</v>
       </c>
       <c r="T4">
-        <v>0.1104288457043317</v>
+        <v>0.0113319599269814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.393812666666667</v>
+        <v>0.3541365</v>
       </c>
       <c r="H5">
-        <v>7.181438</v>
+        <v>0.7082729999999999</v>
       </c>
       <c r="I5">
-        <v>0.4532272278726139</v>
+        <v>0.06920610996416414</v>
       </c>
       <c r="J5">
-        <v>0.5497499903927843</v>
+        <v>0.05608720193777861</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>3.611049650978</v>
+        <v>1.16535503279925</v>
       </c>
       <c r="R5">
-        <v>21.666297905868</v>
+        <v>4.661420131197</v>
       </c>
       <c r="S5">
-        <v>0.001215789601312905</v>
+        <v>0.0005303682080491559</v>
       </c>
       <c r="T5">
-        <v>0.001143524762731577</v>
+        <v>0.0003467230575563861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.393812666666667</v>
+        <v>0.3541365</v>
       </c>
       <c r="H6">
-        <v>7.181438</v>
+        <v>0.7082729999999999</v>
       </c>
       <c r="I6">
-        <v>0.4532272278726139</v>
+        <v>0.06920610996416414</v>
       </c>
       <c r="J6">
-        <v>0.5497499903927843</v>
+        <v>0.05608720193777861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>382.1557283877495</v>
+        <v>9.776771719820998</v>
       </c>
       <c r="R6">
-        <v>3439.401555489746</v>
+        <v>58.66063031892599</v>
       </c>
       <c r="S6">
-        <v>0.1286664558960437</v>
+        <v>0.004449535765157993</v>
       </c>
       <c r="T6">
-        <v>0.1815280517588942</v>
+        <v>0.004363261094240832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.393812666666667</v>
+        <v>0.3541365</v>
       </c>
       <c r="H7">
-        <v>7.181438</v>
+        <v>0.7082729999999999</v>
       </c>
       <c r="I7">
-        <v>0.4532272278726139</v>
+        <v>0.06920610996416414</v>
       </c>
       <c r="J7">
-        <v>0.5497499903927843</v>
+        <v>0.05608720193777861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>164.9630608250656</v>
+        <v>37.7070524935965</v>
       </c>
       <c r="R7">
-        <v>1484.66754742559</v>
+        <v>226.242314961579</v>
       </c>
       <c r="S7">
-        <v>0.05554074115196508</v>
+        <v>0.01716096923167388</v>
       </c>
       <c r="T7">
-        <v>0.07835921541747601</v>
+        <v>0.01682822508684069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.782018</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H8">
-        <v>5.564036</v>
+        <v>7.181438</v>
       </c>
       <c r="I8">
-        <v>0.5267272262317297</v>
+        <v>0.4678039757069445</v>
       </c>
       <c r="J8">
-        <v>0.4259354098086074</v>
+        <v>0.5686885753228443</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>654.056927541088</v>
+        <v>527.254517176255</v>
       </c>
       <c r="R8">
-        <v>2616.227710164352</v>
+        <v>3163.52710305753</v>
       </c>
       <c r="S8">
-        <v>0.2202117633458061</v>
+        <v>0.2399603773872107</v>
       </c>
       <c r="T8">
-        <v>0.1380817888000702</v>
+        <v>0.2353076442292148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.782018</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H9">
-        <v>5.564036</v>
+        <v>7.181438</v>
       </c>
       <c r="I9">
-        <v>0.5267272262317297</v>
+        <v>0.4678039757069445</v>
       </c>
       <c r="J9">
-        <v>0.4259354098086074</v>
+        <v>0.5686885753228443</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
-        <v>0.170671240264</v>
+        <v>0.1468556194746667</v>
       </c>
       <c r="R9">
-        <v>1.024027441584</v>
+        <v>1.321700575272</v>
       </c>
       <c r="S9">
-        <v>5.746260484121262E-05</v>
+        <v>6.683589940452509E-05</v>
       </c>
       <c r="T9">
-        <v>5.404710773642686E-05</v>
+        <v>9.830996815012795E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.782018</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H10">
-        <v>5.564036</v>
+        <v>7.181438</v>
       </c>
       <c r="I10">
-        <v>0.5267272262317297</v>
+        <v>0.4678039757069445</v>
       </c>
       <c r="J10">
-        <v>0.4259354098086074</v>
+        <v>0.5686885753228443</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>270.1773482081393</v>
+        <v>171.6361535547976</v>
       </c>
       <c r="R10">
-        <v>1621.064089248836</v>
+        <v>1544.725381993178</v>
       </c>
       <c r="S10">
-        <v>0.09096491109525118</v>
+        <v>0.07811384224998591</v>
       </c>
       <c r="T10">
-        <v>0.08555808362299402</v>
+        <v>0.1148988703989866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.782018</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H11">
-        <v>5.564036</v>
+        <v>7.181438</v>
       </c>
       <c r="I11">
-        <v>0.5267272262317297</v>
+        <v>0.4678039757069445</v>
       </c>
       <c r="J11">
-        <v>0.4259354098086074</v>
+        <v>0.5686885753228443</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>4.196654678874</v>
+        <v>7.877306176230333</v>
       </c>
       <c r="R11">
-        <v>16.786618715496</v>
+        <v>47.263837057382</v>
       </c>
       <c r="S11">
-        <v>0.00141295457333141</v>
+        <v>0.003585064330915824</v>
       </c>
       <c r="T11">
-        <v>0.0008859803491626541</v>
+        <v>0.003515551406042046</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.782018</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H12">
-        <v>5.564036</v>
+        <v>7.181438</v>
       </c>
       <c r="I12">
-        <v>0.5267272262317297</v>
+        <v>0.4678039757069445</v>
       </c>
       <c r="J12">
-        <v>0.4259354098086074</v>
+        <v>0.5686885753228443</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>444.1300399075353</v>
+        <v>66.08683369835066</v>
       </c>
       <c r="R12">
-        <v>2664.780239445211</v>
+        <v>594.781503285156</v>
       </c>
       <c r="S12">
-        <v>0.1495323344568315</v>
+        <v>0.03007697618127914</v>
       </c>
       <c r="T12">
-        <v>0.1406443410075184</v>
+        <v>0.04424069395007672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.782018</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H13">
-        <v>5.564036</v>
+        <v>7.181438</v>
       </c>
       <c r="I13">
-        <v>0.5267272262317297</v>
+        <v>0.4678039757069445</v>
       </c>
       <c r="J13">
-        <v>0.4259354098086074</v>
+        <v>0.5686885753228443</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>191.7151709241633</v>
+        <v>254.8836956423194</v>
       </c>
       <c r="R13">
-        <v>1150.29102554498</v>
+        <v>2293.953260780874</v>
       </c>
       <c r="S13">
-        <v>0.06454780015566837</v>
+        <v>0.1160008796581484</v>
       </c>
       <c r="T13">
-        <v>0.06071116892112575</v>
+        <v>0.1706275053703742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1058746666666667</v>
+        <v>2.3691785</v>
       </c>
       <c r="H14">
-        <v>0.317624</v>
+        <v>4.738357</v>
       </c>
       <c r="I14">
-        <v>0.02004554589565643</v>
+        <v>0.4629899143288914</v>
       </c>
       <c r="J14">
-        <v>0.02431459979860827</v>
+        <v>0.3752242227393771</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>24.89130522679467</v>
+        <v>521.8286641708237</v>
       </c>
       <c r="R14">
-        <v>149.347831360768</v>
+        <v>2087.314656683295</v>
       </c>
       <c r="S14">
-        <v>0.008380552189208017</v>
+        <v>0.2374910012274696</v>
       </c>
       <c r="T14">
-        <v>0.007882423853086769</v>
+        <v>0.1552574321726386</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1058746666666667</v>
+        <v>2.3691785</v>
       </c>
       <c r="H15">
-        <v>0.317624</v>
+        <v>4.738357</v>
       </c>
       <c r="I15">
-        <v>0.02004554589565643</v>
+        <v>0.4629899143288914</v>
       </c>
       <c r="J15">
-        <v>0.02431459979860827</v>
+        <v>0.3752242227393771</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>0.006495199050666668</v>
+        <v>0.145344362618</v>
       </c>
       <c r="R15">
-        <v>0.05845679145600001</v>
+        <v>0.872066175708</v>
       </c>
       <c r="S15">
-        <v>2.18684211725509E-06</v>
+        <v>6.614810678475408E-05</v>
       </c>
       <c r="T15">
-        <v>3.085288906771065E-06</v>
+        <v>6.486552216337952E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1058746666666667</v>
+        <v>2.3691785</v>
       </c>
       <c r="H16">
-        <v>0.317624</v>
+        <v>4.738357</v>
       </c>
       <c r="I16">
-        <v>0.02004554589565643</v>
+        <v>0.4629899143288914</v>
       </c>
       <c r="J16">
-        <v>0.02431459979860827</v>
+        <v>0.3752242227393771</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>10.28208181342489</v>
+        <v>169.8698860136612</v>
       </c>
       <c r="R16">
-        <v>92.538736320824</v>
+        <v>1019.219316081967</v>
       </c>
       <c r="S16">
-        <v>0.003461832252908747</v>
+        <v>0.0773099909562924</v>
       </c>
       <c r="T16">
-        <v>0.004884098656563305</v>
+        <v>0.07581098198538105</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1058746666666667</v>
+        <v>2.3691785</v>
       </c>
       <c r="H17">
-        <v>0.317624</v>
+        <v>4.738357</v>
       </c>
       <c r="I17">
-        <v>0.02004554589565643</v>
+        <v>0.4629899143288914</v>
       </c>
       <c r="J17">
-        <v>0.02431459979860827</v>
+        <v>0.3752242227393771</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>0.159711193544</v>
+        <v>7.796242659468249</v>
       </c>
       <c r="R17">
-        <v>0.9582671612640001</v>
+        <v>31.184970637873</v>
       </c>
       <c r="S17">
-        <v>5.37725113448602E-05</v>
+        <v>0.003548171271793749</v>
       </c>
       <c r="T17">
-        <v>5.057634825195935E-05</v>
+        <v>0.002319582458788779</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1058746666666667</v>
+        <v>2.3691785</v>
       </c>
       <c r="H18">
-        <v>0.317624</v>
+        <v>4.738357</v>
       </c>
       <c r="I18">
-        <v>0.02004554589565643</v>
+        <v>0.4629899143288914</v>
       </c>
       <c r="J18">
-        <v>0.02431459979860827</v>
+        <v>0.3752242227393771</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>16.90216236266755</v>
+        <v>65.40674953868898</v>
       </c>
       <c r="R18">
-        <v>152.119461264008</v>
+        <v>392.4404972321339</v>
       </c>
       <c r="S18">
-        <v>0.005690720213350721</v>
+        <v>0.02976746104904003</v>
       </c>
       <c r="T18">
-        <v>0.008028707608680467</v>
+        <v>0.02919028220576488</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,19 +1594,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1058746666666667</v>
+        <v>2.3691785</v>
       </c>
       <c r="H19">
-        <v>0.317624</v>
+        <v>4.738357</v>
       </c>
       <c r="I19">
-        <v>0.02004554589565643</v>
+        <v>0.4629899143288914</v>
       </c>
       <c r="J19">
-        <v>0.02431459979860827</v>
+        <v>0.3752242227393771</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N19">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O19">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P19">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q19">
-        <v>7.296063439035556</v>
+        <v>252.2607471023185</v>
       </c>
       <c r="R19">
-        <v>65.66457095132</v>
+        <v>1513.564482613911</v>
       </c>
       <c r="S19">
-        <v>0.00245648188672683</v>
+        <v>0.1148071417175108</v>
       </c>
       <c r="T19">
-        <v>0.003465708043118997</v>
+        <v>0.1125810783946405</v>
       </c>
     </row>
   </sheetData>
